--- a/_data/MVLS LTS ORCiD.xlsx
+++ b/_data/MVLS LTS ORCiD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Associate Dean/MVLS LTS Network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F87B2E4-A0BA-49F9-A859-657C42086564}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70AEFDD1-256D-49E4-B385-9D9D0A28317C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -312,6 +312,33 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0002-9634-9738</t>
+  </si>
+  <si>
+    <t>Carolyn Loveridge</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-6237-8661</t>
+  </si>
+  <si>
+    <t>Leighann Sherry</t>
+  </si>
+  <si>
+    <t>School of Infection &amp; Immunity</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0493-6135</t>
+  </si>
+  <si>
+    <t>Eileen Cowey</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-9241-9500</t>
+  </si>
+  <si>
+    <t>michelle Welsh</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-1469-0201</t>
   </si>
 </sst>
 </file>
@@ -369,11 +396,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1117,6 +1147,50 @@
       </c>
       <c r="C41" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1154,6 +1228,10 @@
     <hyperlink ref="C9" r:id="rId31" xr:uid="{DCF47709-2C3C-7141-8672-BC6FE078F3C8}"/>
     <hyperlink ref="C40" r:id="rId32" xr:uid="{C6722E39-8D6E-498B-956C-E13CEF15DD91}"/>
     <hyperlink ref="C41" r:id="rId33" xr:uid="{B352DAFD-8E59-403E-9531-64C53F63C44F}"/>
+    <hyperlink ref="C42" r:id="rId34" xr:uid="{57AE4192-3C88-48E0-8269-EB3CD1E6C2A8}"/>
+    <hyperlink ref="C43" r:id="rId35" xr:uid="{BCE8B85C-7F7F-4303-ADF2-DC9FFE1ACA40}"/>
+    <hyperlink ref="C44" r:id="rId36" xr:uid="{FCCF507F-3E72-4788-BAF6-6DA009D7394C}"/>
+    <hyperlink ref="C45" r:id="rId37" xr:uid="{A289D90F-20D8-450E-9AB0-557D85EA314F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/MVLS LTS ORCiD.xlsx
+++ b/_data/MVLS LTS ORCiD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Associate Dean/MVLS LTS Network/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Teaching/psyteachR/mvls_lts/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70AEFDD1-256D-49E4-B385-9D9D0A28317C}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE87DAC3-5193-42E9-A475-7A7D528B0DF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -143,9 +143,6 @@
     <t>MVLS Graduate School</t>
   </si>
   <si>
-    <t>https//orcid.org/0000-0003-4241-4933</t>
-  </si>
-  <si>
     <t>Genevieve Stapleton</t>
   </si>
   <si>
@@ -335,17 +332,32 @@
     <t>https://orcid.org/0000-0001-9241-9500</t>
   </si>
   <si>
-    <t>michelle Welsh</t>
-  </si>
-  <si>
     <t>https://orcid.org/0000-0003-1469-0201</t>
+  </si>
+  <si>
+    <t>Hamish Runciman</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8352-7451</t>
+  </si>
+  <si>
+    <t>Sharon Sneddon</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-9767-4180</t>
+  </si>
+  <si>
+    <t>Michelle Welsh</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4241-4933</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,20 +697,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -720,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -731,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -742,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -753,7 +765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -764,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -775,7 +787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -786,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -797,7 +809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -808,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -819,7 +831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -830,7 +842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -841,356 +853,378 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>92</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>97</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1232,6 +1266,9 @@
     <hyperlink ref="C43" r:id="rId35" xr:uid="{BCE8B85C-7F7F-4303-ADF2-DC9FFE1ACA40}"/>
     <hyperlink ref="C44" r:id="rId36" xr:uid="{FCCF507F-3E72-4788-BAF6-6DA009D7394C}"/>
     <hyperlink ref="C45" r:id="rId37" xr:uid="{A289D90F-20D8-450E-9AB0-557D85EA314F}"/>
+    <hyperlink ref="C46" r:id="rId38" xr:uid="{26E44FBF-4211-4D7A-A9A8-A4D19F2C8064}"/>
+    <hyperlink ref="C47" r:id="rId39" xr:uid="{312F4EBC-D623-4233-A423-601AA8543EEC}"/>
+    <hyperlink ref="C14" r:id="rId40" xr:uid="{D5CE1D64-E6A0-489F-80ED-CD86A9700059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/MVLS LTS ORCiD.xlsx
+++ b/_data/MVLS LTS ORCiD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Teaching/psyteachR/mvls_lts/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE87DAC3-5193-42E9-A475-7A7D528B0DF3}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFF0FA1-6345-499D-901E-AD34F544B14D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +143,9 @@
     <t>MVLS Graduate School</t>
   </si>
   <si>
+    <t>https://orcid.org/0000-0003-4241-4933</t>
+  </si>
+  <si>
     <t>Genevieve Stapleton</t>
   </si>
   <si>
@@ -332,6 +335,9 @@
     <t>https://orcid.org/0000-0001-9241-9500</t>
   </si>
   <si>
+    <t>Michelle Welsh</t>
+  </si>
+  <si>
     <t>https://orcid.org/0000-0003-1469-0201</t>
   </si>
   <si>
@@ -347,17 +353,23 @@
     <t>https://orcid.org/0000-0001-9767-4180</t>
   </si>
   <si>
-    <t>Michelle Welsh</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-4241-4933</t>
+    <t>Gaby Mahrholz</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2135-6888</t>
+  </si>
+  <si>
+    <t>Gemma Masterton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0009-0006-2188-9648 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,20 +709,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="42.26953125" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -732,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -743,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -754,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -765,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -776,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -787,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -798,7 +810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -809,7 +821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -820,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -831,7 +843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -842,7 +854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -853,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -861,372 +873,395 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{60EFD2F2-20D8-4632-AE79-0B4039007552}"/>
@@ -1269,6 +1304,8 @@
     <hyperlink ref="C46" r:id="rId38" xr:uid="{26E44FBF-4211-4D7A-A9A8-A4D19F2C8064}"/>
     <hyperlink ref="C47" r:id="rId39" xr:uid="{312F4EBC-D623-4233-A423-601AA8543EEC}"/>
     <hyperlink ref="C14" r:id="rId40" xr:uid="{D5CE1D64-E6A0-489F-80ED-CD86A9700059}"/>
+    <hyperlink ref="C48" r:id="rId41" xr:uid="{BEDA0D96-EA07-4DA1-AA12-AF21965BE98F}"/>
+    <hyperlink ref="C49" r:id="rId42" xr:uid="{193C1629-FF53-4D82-89AC-4951C024A328}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/MVLS LTS ORCiD.xlsx
+++ b/_data/MVLS LTS ORCiD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Teaching/psyteachR/mvls_lts/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFF0FA1-6345-499D-901E-AD34F544B14D}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCBCC097-4677-4C02-B270-CA060341ACA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://orcid.org/0009-0006-2188-9648 </t>
+  </si>
+  <si>
+    <t>Anna McGregor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Biodiversity, One Health and Veterinary Medicine </t>
+  </si>
+  <si>
+    <t>0000-0001-8910-6490</t>
   </si>
 </sst>
 </file>
@@ -711,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1261,7 +1270,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15"/>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{60EFD2F2-20D8-4632-AE79-0B4039007552}"/>
@@ -1306,6 +1325,7 @@
     <hyperlink ref="C14" r:id="rId40" xr:uid="{D5CE1D64-E6A0-489F-80ED-CD86A9700059}"/>
     <hyperlink ref="C48" r:id="rId41" xr:uid="{BEDA0D96-EA07-4DA1-AA12-AF21965BE98F}"/>
     <hyperlink ref="C49" r:id="rId42" xr:uid="{193C1629-FF53-4D82-89AC-4951C024A328}"/>
+    <hyperlink ref="C50" r:id="rId43" xr:uid="{99D04A76-6CF1-4E21-8E24-08577B6D8EDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/MVLS LTS ORCiD.xlsx
+++ b/_data/MVLS LTS ORCiD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Teaching/psyteachR/mvls_lts/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95501196-9C4F-4660-963C-94EB51C9568F}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C46C63-1884-4EA3-87BE-8B026463B588}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -191,12 +191,18 @@
     <t>https://orcid.org/0009-0003-8135-3114</t>
   </si>
   <si>
+    <t xml:space="preserve">Claire Donald </t>
+  </si>
+  <si>
+    <t>School of Infection &amp; Immunity</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4370-0707</t>
+  </si>
+  <si>
     <t>Leighann Sherry</t>
   </si>
   <si>
-    <t>School of Infection &amp; Immunity</t>
-  </si>
-  <si>
     <t>https://orcid.org/0000-0002-0493-6135</t>
   </si>
   <si>
@@ -372,6 +378,54 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0002-9634-9738</t>
+  </si>
+  <si>
+    <t>Simon Hanzal</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-2659-1980</t>
+  </si>
+  <si>
+    <t>Ashley Le Vin</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-5163-7990</t>
+  </si>
+  <si>
+    <t>Judith Jackson</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-1865-1875</t>
+  </si>
+  <si>
+    <t>Monika Mihm Carmichael</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2579-6741</t>
+  </si>
+  <si>
+    <t>Denise Hough</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5478-693X</t>
+  </si>
+  <si>
+    <t>Clare McFeely</t>
+  </si>
+  <si>
+    <t>Alexia Revueltas Roux</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8809-2303</t>
+  </si>
+  <si>
+    <t>Rafael Henry-Venson</t>
+  </si>
+  <si>
+    <t>School of Medicine, Dentistry and Nursing</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-1959-8503</t>
   </si>
 </sst>
 </file>
@@ -718,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -980,7 +1034,7 @@
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -989,18 +1043,18 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
         <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>58</v>
@@ -1011,7 +1065,7 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>60</v>
@@ -1022,7 +1076,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>62</v>
@@ -1033,7 +1087,7 @@
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>64</v>
@@ -1044,7 +1098,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>66</v>
@@ -1055,18 +1109,18 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>
@@ -1077,9 +1131,9 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1088,7 +1142,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>75</v>
@@ -1099,7 +1153,7 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>77</v>
@@ -1110,7 +1164,7 @@
         <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>79</v>
@@ -1121,9 +1175,9 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1132,20 +1186,20 @@
         <v>82</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1154,7 +1208,7 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>88</v>
@@ -1165,7 +1219,7 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>90</v>
@@ -1176,7 +1230,7 @@
         <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>92</v>
@@ -1187,7 +1241,7 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>94</v>
@@ -1198,7 +1252,7 @@
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>96</v>
@@ -1209,7 +1263,7 @@
         <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>98</v>
@@ -1220,7 +1274,7 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>100</v>
@@ -1231,7 +1285,7 @@
         <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>102</v>
@@ -1242,7 +1296,7 @@
         <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>104</v>
@@ -1253,7 +1307,7 @@
         <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>106</v>
@@ -1264,71 +1318,179 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
         <v>110</v>
-      </c>
-      <c r="B50" t="s">
-        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
-    <sortCondition ref="B2:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="B2:B51"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{60EFD2F2-20D8-4632-AE79-0B4039007552}"/>
-    <hyperlink ref="C38" r:id="rId2" xr:uid="{905A93DF-37AB-479C-AFB1-7AFE9087B707}"/>
-    <hyperlink ref="C24" r:id="rId3" xr:uid="{3B0656E1-6D55-4D3B-A91B-E66CBD3EC3D1}"/>
-    <hyperlink ref="C39" r:id="rId4" xr:uid="{86BABA8B-BE9E-40DC-89A8-BAAAEA2F6933}"/>
+    <hyperlink ref="C39" r:id="rId2" xr:uid="{905A93DF-37AB-479C-AFB1-7AFE9087B707}"/>
+    <hyperlink ref="C25" r:id="rId3" xr:uid="{3B0656E1-6D55-4D3B-A91B-E66CBD3EC3D1}"/>
+    <hyperlink ref="C40" r:id="rId4" xr:uid="{86BABA8B-BE9E-40DC-89A8-BAAAEA2F6933}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{1F56D623-FD9B-46F4-AD94-1FE95F0B041B}"/>
-    <hyperlink ref="C40" r:id="rId6" xr:uid="{01C62254-C9AE-42C1-83DE-B2B9CEDA063D}"/>
+    <hyperlink ref="C41" r:id="rId6" xr:uid="{01C62254-C9AE-42C1-83DE-B2B9CEDA063D}"/>
     <hyperlink ref="C6" r:id="rId7" xr:uid="{6F217E1C-1E80-493A-AD36-C82F58DAB0E7}"/>
-    <hyperlink ref="C25" r:id="rId8" xr:uid="{78E58C1B-4566-41EE-BE2F-2D15E76060D7}"/>
+    <hyperlink ref="C26" r:id="rId8" xr:uid="{78E58C1B-4566-41EE-BE2F-2D15E76060D7}"/>
     <hyperlink ref="C12" r:id="rId9" xr:uid="{853DA834-5C5C-2A42-987E-FAE24AF2B769}"/>
     <hyperlink ref="C15" r:id="rId10" xr:uid="{44759F3A-04AC-420D-9DDB-7D6AB2D56272}"/>
-    <hyperlink ref="C32" r:id="rId11" xr:uid="{DBDCD06D-2923-4218-BC97-ABE03390F1D7}"/>
-    <hyperlink ref="C33" r:id="rId12" xr:uid="{2AB62B2B-68E1-40FD-B878-E1B53BE55C54}"/>
+    <hyperlink ref="C33" r:id="rId11" xr:uid="{DBDCD06D-2923-4218-BC97-ABE03390F1D7}"/>
+    <hyperlink ref="C34" r:id="rId12" xr:uid="{2AB62B2B-68E1-40FD-B878-E1B53BE55C54}"/>
     <hyperlink ref="C19" r:id="rId13" xr:uid="{1FE273A7-C2F0-4349-9B1A-4442668BA296}"/>
-    <hyperlink ref="C34" r:id="rId14" xr:uid="{9381CA16-CF22-4437-ACD7-1E1796619196}"/>
-    <hyperlink ref="C41" r:id="rId15" xr:uid="{8A309B9A-E247-4CBE-87BB-B85B0A69E7D8}"/>
+    <hyperlink ref="C35" r:id="rId14" xr:uid="{9381CA16-CF22-4437-ACD7-1E1796619196}"/>
+    <hyperlink ref="C42" r:id="rId15" xr:uid="{8A309B9A-E247-4CBE-87BB-B85B0A69E7D8}"/>
     <hyperlink ref="C16" r:id="rId16" xr:uid="{70D6EB93-C68C-4CDC-BF76-F41A8E2104DE}"/>
-    <hyperlink ref="C35" r:id="rId17" xr:uid="{4848D5FD-F053-4486-8E3E-D89C72341827}"/>
+    <hyperlink ref="C36" r:id="rId17" xr:uid="{4848D5FD-F053-4486-8E3E-D89C72341827}"/>
     <hyperlink ref="C17" r:id="rId18" xr:uid="{8F35F983-AFB9-48AE-8283-EE20E0D257FF}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{2E7B406A-B501-4CFA-810E-97CD43405EB3}"/>
-    <hyperlink ref="C43" r:id="rId20" xr:uid="{42C99594-AAE8-4E35-91FC-5AB94011BC96}"/>
+    <hyperlink ref="C43" r:id="rId19" xr:uid="{2E7B406A-B501-4CFA-810E-97CD43405EB3}"/>
+    <hyperlink ref="C44" r:id="rId20" xr:uid="{42C99594-AAE8-4E35-91FC-5AB94011BC96}"/>
     <hyperlink ref="C7" r:id="rId21" xr:uid="{FEEF8F34-0FC0-4F46-9A43-8C7A538DDB05}"/>
     <hyperlink ref="C3" r:id="rId22" xr:uid="{44209C97-1064-412A-A07E-09A8319F0DC3}"/>
-    <hyperlink ref="C44" r:id="rId23" xr:uid="{E3C2BCAA-B2C5-4140-AFAB-699F12F824F8}"/>
+    <hyperlink ref="C45" r:id="rId23" xr:uid="{E3C2BCAA-B2C5-4140-AFAB-699F12F824F8}"/>
     <hyperlink ref="C20" r:id="rId24" xr:uid="{6775C434-C635-41C4-A4A2-85E4FC7BF7B4}"/>
-    <hyperlink ref="C45" r:id="rId25" xr:uid="{9B49F270-4E7E-4719-B7C6-A6C10D0755E1}"/>
-    <hyperlink ref="C46" r:id="rId26" xr:uid="{39424440-C765-4B0E-A77A-F13B8E6025C0}"/>
-    <hyperlink ref="C47" r:id="rId27" xr:uid="{5E9507EB-C8C0-4121-AAC7-F797B1919E5B}"/>
+    <hyperlink ref="C46" r:id="rId25" xr:uid="{9B49F270-4E7E-4719-B7C6-A6C10D0755E1}"/>
+    <hyperlink ref="C47" r:id="rId26" xr:uid="{39424440-C765-4B0E-A77A-F13B8E6025C0}"/>
+    <hyperlink ref="C48" r:id="rId27" xr:uid="{5E9507EB-C8C0-4121-AAC7-F797B1919E5B}"/>
     <hyperlink ref="C21" r:id="rId28" xr:uid="{240C280F-C6A6-4AAF-B749-C521E8C36A54}"/>
     <hyperlink ref="C22" r:id="rId29" xr:uid="{D9FF37C8-1533-4CAF-8493-CEE43B120B13}"/>
     <hyperlink ref="C18" r:id="rId30" xr:uid="{5E303B2A-86FF-4460-A167-90ECDB6A9B0E}"/>
     <hyperlink ref="C13" r:id="rId31" xr:uid="{DCF47709-2C3C-7141-8672-BC6FE078F3C8}"/>
-    <hyperlink ref="C49" r:id="rId32" xr:uid="{C6722E39-8D6E-498B-956C-E13CEF15DD91}"/>
-    <hyperlink ref="C50" r:id="rId33" xr:uid="{B352DAFD-8E59-403E-9531-64C53F63C44F}"/>
+    <hyperlink ref="C50" r:id="rId32" xr:uid="{C6722E39-8D6E-498B-956C-E13CEF15DD91}"/>
+    <hyperlink ref="C51" r:id="rId33" xr:uid="{B352DAFD-8E59-403E-9531-64C53F63C44F}"/>
     <hyperlink ref="C4" r:id="rId34" xr:uid="{57AE4192-3C88-48E0-8269-EB3CD1E6C2A8}"/>
-    <hyperlink ref="C23" r:id="rId35" xr:uid="{BCE8B85C-7F7F-4303-ADF2-DC9FFE1ACA40}"/>
-    <hyperlink ref="C26" r:id="rId36" xr:uid="{FCCF507F-3E72-4788-BAF6-6DA009D7394C}"/>
-    <hyperlink ref="C27" r:id="rId37" xr:uid="{A289D90F-20D8-450E-9AB0-557D85EA314F}"/>
-    <hyperlink ref="C28" r:id="rId38" xr:uid="{26E44FBF-4211-4D7A-A9A8-A4D19F2C8064}"/>
-    <hyperlink ref="C29" r:id="rId39" xr:uid="{312F4EBC-D623-4233-A423-601AA8543EEC}"/>
+    <hyperlink ref="C24" r:id="rId35" xr:uid="{BCE8B85C-7F7F-4303-ADF2-DC9FFE1ACA40}"/>
+    <hyperlink ref="C27" r:id="rId36" xr:uid="{FCCF507F-3E72-4788-BAF6-6DA009D7394C}"/>
+    <hyperlink ref="C28" r:id="rId37" xr:uid="{A289D90F-20D8-450E-9AB0-557D85EA314F}"/>
+    <hyperlink ref="C29" r:id="rId38" xr:uid="{26E44FBF-4211-4D7A-A9A8-A4D19F2C8064}"/>
+    <hyperlink ref="C30" r:id="rId39" xr:uid="{312F4EBC-D623-4233-A423-601AA8543EEC}"/>
     <hyperlink ref="C2" r:id="rId40" xr:uid="{D5CE1D64-E6A0-489F-80ED-CD86A9700059}"/>
-    <hyperlink ref="C48" r:id="rId41" xr:uid="{BEDA0D96-EA07-4DA1-AA12-AF21965BE98F}"/>
+    <hyperlink ref="C49" r:id="rId41" xr:uid="{BEDA0D96-EA07-4DA1-AA12-AF21965BE98F}"/>
     <hyperlink ref="C8" r:id="rId42" xr:uid="{193C1629-FF53-4D82-89AC-4951C024A328}"/>
     <hyperlink ref="C9" r:id="rId43" xr:uid="{99D04A76-6CF1-4E21-8E24-08577B6D8EDD}"/>
+    <hyperlink ref="C23" r:id="rId44" xr:uid="{5BD7097C-F4F9-4E7C-928E-9F7DB32C56BE}"/>
+    <hyperlink ref="C52" r:id="rId45" xr:uid="{D9D7F3DC-EB7B-496A-957B-D642222B2184}"/>
+    <hyperlink ref="C53" r:id="rId46" xr:uid="{57026629-D559-44AA-99C0-D6812C6C5753}"/>
+    <hyperlink ref="C54" r:id="rId47" xr:uid="{5502A002-2A4E-41BD-8753-3F8E6A3FE3AD}"/>
+    <hyperlink ref="C55" r:id="rId48" xr:uid="{E40631A0-C61A-4DA4-B1AD-AF3EEC89DC51}"/>
+    <hyperlink ref="C56" r:id="rId49" xr:uid="{6B54A3F6-9175-4567-9381-B34FE03B16B6}"/>
+    <hyperlink ref="C57" r:id="rId50" xr:uid="{CC0D3221-A564-41AD-89C3-B9BD2DB862AF}"/>
+    <hyperlink ref="C58" r:id="rId51" xr:uid="{99B08B75-DF0E-4727-AA58-7972572A4E0F}"/>
+    <hyperlink ref="C59" r:id="rId52" xr:uid="{051C51F6-F07A-4545-83B8-86BF9E184DDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/MVLS LTS ORCiD.xlsx
+++ b/_data/MVLS LTS ORCiD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29728"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Teaching/psyteachR/mvls_lts/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C46C63-1884-4EA3-87BE-8B026463B588}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23C6D50-7194-4C24-99EC-94F45D29EE3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -426,6 +426,18 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0002-1959-8503</t>
+  </si>
+  <si>
+    <t>Nicholas Rudzik</t>
+  </si>
+  <si>
+    <t>0009-0005-8819-0826</t>
+  </si>
+  <si>
+    <t>Steven McNair</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4716-0557</t>
   </si>
 </sst>
 </file>
@@ -772,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1432,6 +1444,28 @@
       </c>
       <c r="C59" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1491,6 +1525,8 @@
     <hyperlink ref="C57" r:id="rId50" xr:uid="{CC0D3221-A564-41AD-89C3-B9BD2DB862AF}"/>
     <hyperlink ref="C58" r:id="rId51" xr:uid="{99B08B75-DF0E-4727-AA58-7972572A4E0F}"/>
     <hyperlink ref="C59" r:id="rId52" xr:uid="{051C51F6-F07A-4545-83B8-86BF9E184DDC}"/>
+    <hyperlink ref="C60" r:id="rId53" xr:uid="{E81E296F-58C8-46D4-AF45-51F0E6BB9EFE}"/>
+    <hyperlink ref="C61" r:id="rId54" xr:uid="{6ED15BE1-DB86-44F1-9E4E-AEF7035A9A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/MVLS LTS ORCiD.xlsx
+++ b/_data/MVLS LTS ORCiD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Teaching/psyteachR/mvls_lts/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23C6D50-7194-4C24-99EC-94F45D29EE3D}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="11_F25DC773A252ABDACC10485EA95868EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD28129-8C2F-4A54-9987-C7A0FF78F642}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0003-4716-0557</t>
+  </si>
+  <si>
+    <t>Dougie Marks</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0009-0002-4183-600X</t>
   </si>
 </sst>
 </file>
@@ -784,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1466,6 +1472,17 @@
       </c>
       <c r="C61" s="1" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1527,6 +1544,7 @@
     <hyperlink ref="C59" r:id="rId52" xr:uid="{051C51F6-F07A-4545-83B8-86BF9E184DDC}"/>
     <hyperlink ref="C60" r:id="rId53" xr:uid="{E81E296F-58C8-46D4-AF45-51F0E6BB9EFE}"/>
     <hyperlink ref="C61" r:id="rId54" xr:uid="{6ED15BE1-DB86-44F1-9E4E-AEF7035A9A0A}"/>
+    <hyperlink ref="C62" r:id="rId55" xr:uid="{E0165319-1A0E-477E-B52D-E0057A44F615}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
